--- a/doc/04_ファイル構成一覧表_今日はどっち派？.xlsx
+++ b/doc/04_ファイル構成一覧表_今日はどっち派？.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F7C93-EBB9-4CCD-9757-03597A02C98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F82ED4-4FEE-492E-911B-25928CCD57C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="179">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1266,6 +1266,10 @@
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1752,8 +1756,8 @@
   <dimension ref="B1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3550,7 +3554,7 @@
         <v>123</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>168</v>
@@ -3812,18 +3816,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3846,6 +3850,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3860,12 +3872,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>